--- a/xlsx/泰國_intext.xlsx
+++ b/xlsx/泰國_intext.xlsx
@@ -29,7 +29,7 @@
     <t>暹罗 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_泰國</t>
+    <t>体育运动_体育运动_伊朗_泰國</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD%E5%9B%BD%E6%97%97</t>
